--- a/Data/Data Testing Real.xlsx
+++ b/Data/Data Testing Real.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28d765edc24e0849/(GitHub)/ML_GreenBuildingANN/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{88EC2A99-3571-44B7-B1D6-EEE0F8171604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7FF8B69-07E7-42FC-A32C-63FC3333B042}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{88EC2A99-3571-44B7-B1D6-EEE0F8171604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C95BCDD-D258-4A2F-9CAF-1DA256FE4192}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="13900" windowHeight="15870" xr2:uid="{1E459FE3-FCDB-4321-A225-847A62D77E96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{1E459FE3-FCDB-4321-A225-847A62D77E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -919,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A9B7A-6E63-4256-BE5F-996820395C31}">
   <dimension ref="A1:I1391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A1352" workbookViewId="0">
+      <selection activeCell="H1392" sqref="H1392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
